--- a/Spring Boot 2 ISBN 9783960883883.xlsx
+++ b/Spring Boot 2 ISBN 9783960883883.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoachimWagner\git\atruvia-spring-boot-februar-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F914B95-B448-4062-861A-4A7ADF51E94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71E47D9-3823-4C2B-AFDB-86046051A108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="3500" windowWidth="28800" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4090" yWindow="2820" windowWidth="28800" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Spring Boot 2 ISBN 9783960883883 </t>
   </si>
@@ -79,6 +79,30 @@
   </si>
   <si>
     <t>5. Für Fragen steht Ihnen ein Support-Team zur Verfügung: E-Mail: info@quolibris.deinfo@quolibris.de, Tel.: +49 89 5205759-51, erreichbar werktags von 9:00 - 18:00 Uhr</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>Jakob</t>
+  </si>
+  <si>
+    <t>Lea</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Rieke</t>
+  </si>
+  <si>
+    <t>Lina</t>
   </si>
 </sst>
 </file>
@@ -454,73 +478,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
